--- a/Sonification/Evaluation.xlsx
+++ b/Sonification/Evaluation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t xml:space="preserve">Son</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Nombre d’essai</t>
   </si>
   <si>
-    <t xml:space="preserve">BG-BD</t>
+    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">hg</t>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">BG</t>
   </si>
   <si>
-    <t xml:space="preserve">BG-BG</t>
+    <t xml:space="preserve">B</t>
   </si>
   <si>
     <t xml:space="preserve">bg</t>
@@ -70,13 +70,16 @@
     <t xml:space="preserve">HD</t>
   </si>
   <si>
-    <t xml:space="preserve">HD-BD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HD-BG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HG_HD</t>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
     <t xml:space="preserve">bd</t>
@@ -85,10 +88,10 @@
     <t xml:space="preserve">BD</t>
   </si>
   <si>
-    <t xml:space="preserve">HG-HD-BD-BG-HG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HGS</t>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
   </si>
 </sst>
 </file>
@@ -103,6 +106,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,6 +128,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -280,7 +285,7 @@
       <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
@@ -452,7 +457,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -481,13 +486,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -499,7 +504,7 @@
         <v>15</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>1</v>
@@ -510,7 +515,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -539,13 +544,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>2</v>
